--- a/google_jobs.xlsx
+++ b/google_jobs.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Titre</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Societe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Difficulté</t>
         </is>
       </c>
     </row>
